--- a/biology/Botanique/Dragonnier/Dragonnier.xlsx
+++ b/biology/Botanique/Dragonnier/Dragonnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « dragonnier » est le nom vernaculaire donné à certains arbres du genre Dracaena, à port arbustif ou arborescent.
 </t>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Terminologie
-Le terme « dragonnier » désigne principalement les arbres des îles Canaries (Dracaena draco) et de Socotra (Dracaena cinnabari), en raison de la résine rouge qui en est extraite, comparée au sang d'un dragon. Il dérive ainsi par suffixation de "-ier" à « dragon », et s'inspire du nom du genre Dracaena (en grec ancien : δράκαινα / drakaina, « dragon femelle »).
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « dragonnier » désigne principalement les arbres des îles Canaries (Dracaena draco) et de Socotra (Dracaena cinnabari), en raison de la résine rouge qui en est extraite, comparée au sang d'un dragon. Il dérive ainsi par suffixation de "-ier" à « dragon », et s'inspire du nom du genre Dracaena (en grec ancien : δράκαινα / drakaina, « dragon femelle »).
 Pour les horticulteurs, l'appellation  « dragonnier » sans autre précision désigne l'espèce Dracaena marginata (le dragonnier de Madagascar), l'espèce de Dracaena la plus couramment utilisée comme plante d'intérieur.
 Il arrive que l'on appelle également « dragonnier » l'espèce Cordyline fruticosa (L.) A. Chev. (famille des agavacées ou des liliacées) qu'on peut toutefois distinguer grâce à ses couleurs rougeâtres.[réf. nécessaire] Elle comporte en outre comme autre nom scientifique Dracaena terminalis Lam. ou Dracaena formosa W.Bull.
-Liste des arbres appelés « dragonnier »
-Dragonnier des Canaries - Dracaena draco (L.) L., 1767
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dragonnier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dragonnier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des arbres appelés « dragonnier »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dragonnier des Canaries - Dracaena draco (L.) L., 1767
 Dragonnier de Socotra - Dracaena cinnabari Balf.f., 1882
 Dragonnier de Madagascar - Dracaena marginata Lam., 1786
 Dragonnier d'Afrique tropicale - Dracaena fragrans (L.) Ker Gawl., 1808
